--- a/_site/topic_names.xlsx
+++ b/_site/topic_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweston2/Dropbox (University of Oregon)/RAPID-EC/Data Analysis R3/Rapid-R3-Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856834C5-6E41-074D-AE4D-0118F2B4558A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F46E204-8AD4-6A4D-BA9A-8C2EBCE9DF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{0BE4A555-0A46-824B-9D5C-ED941116D293}"/>
+    <workbookView xWindow="9460" yWindow="580" windowWidth="19580" windowHeight="16940" activeTab="2" xr2:uid="{0BE4A555-0A46-824B-9D5C-ED941116D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Challenges 30" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Topic summary</t>
   </si>
   <si>
-    <t>Adjustig to the new reality</t>
-  </si>
-  <si>
     <t>Other challenges (divorce, housing) made worse by pandemic</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Quality time with familiy</t>
   </si>
   <si>
-    <t>Social mediia/FaceTime</t>
-  </si>
-  <si>
     <t>Stimulus check</t>
   </si>
   <si>
@@ -285,6 +279,12 @@
   </si>
   <si>
     <t>Free food</t>
+  </si>
+  <si>
+    <t>Adjusting to the new reality</t>
+  </si>
+  <si>
+    <t>Social media/FaceTime</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CBBED0-1984-0848-B275-595D2EF6458C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A10" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -694,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -705,10 +705,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -716,10 +716,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -727,10 +727,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -738,10 +738,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -749,13 +749,13 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -763,10 +763,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -774,10 +774,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -785,10 +785,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -807,10 +807,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -818,10 +818,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -829,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -840,10 +840,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -851,10 +851,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -862,10 +862,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -873,10 +873,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -884,10 +884,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -895,13 +895,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
         <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -909,10 +909,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -920,10 +920,10 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -931,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -947,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -987,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1028,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1039,10 +1039,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1050,10 +1050,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1061,10 +1061,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1072,10 +1072,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,10 +1083,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1094,10 +1094,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1105,10 +1105,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1116,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1127,10 +1127,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1138,10 +1138,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1149,10 +1149,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1160,10 +1160,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1182,10 +1182,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1193,10 +1193,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1236,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1244,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1252,7 +1252,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1260,7 +1260,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1284,7 +1284,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA9EA83-A09A-0443-85BE-0903D4729B63}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1329,10 +1329,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1340,10 +1340,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1351,10 +1351,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1362,10 +1362,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1373,10 +1373,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1384,10 +1384,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1395,10 +1395,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1406,10 +1406,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1417,10 +1417,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1429,10 +1429,10 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1441,10 +1441,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1452,10 +1452,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1463,10 +1463,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,10 +1485,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1496,10 +1496,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1507,10 +1507,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1518,10 +1518,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1529,10 +1529,10 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1540,10 +1540,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1551,10 +1551,10 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -1563,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1571,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1587,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1595,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1603,7 +1603,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1619,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1627,7 +1627,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F31" s="3"/>
     </row>
